--- a/Bayer/RPA_EnvioCVPastaZip/Execucao/Check List/CheckList_RPA_EnvioCVPastaZip.xlsx
+++ b/Bayer/RPA_EnvioCVPastaZip/Execucao/Check List/CheckList_RPA_EnvioCVPastaZip.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Processos\CiaTalentos\Bayer\RPA_EnvioCVPastaZip\Execucao\Check List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Processos-Git\Processos\Bayer\RPA_EnvioCVPastaZip\Execucao\Check List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97A4607-A394-483E-9007-E0C012282BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C249B033-5467-42D8-840F-E627BD30415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E307CBE-FA5E-4EDB-B62C-1C54A35F008C}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Atividades</t>
   </si>
   <si>
-    <t>Envio Agendamento Teams</t>
-  </si>
-  <si>
     <t>Abrir a pasta "Data"</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Na Área de Trabalho Clique no Atalho EnvioCVPastaZip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envio Mala Direta com Anexo Pasta Zip </t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,12 +1037,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>1</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
